--- a/linreg/rifreg2bw_coefs_2_blk0.xlsx
+++ b/linreg/rifreg2bw_coefs_2_blk0.xlsx
@@ -153,13 +153,13 @@
         <v>0.14293519862845075</v>
       </c>
       <c r="C2">
-        <v>0.0028108352847555466</v>
+        <v>0.0028750212807045297</v>
       </c>
       <c r="D2">
-        <v>0.13742604870666342</v>
+        <v>0.13730024614666286</v>
       </c>
       <c r="E2">
-        <v>0.14844434855023808</v>
+        <v>0.14857015111023864</v>
       </c>
     </row>
     <row r="3">
@@ -170,13 +170,13 @@
         <v>0.083808520811415196</v>
       </c>
       <c r="C3">
-        <v>0.0024161399839908366</v>
+        <v>0.0028108524018678038</v>
       </c>
       <c r="D3">
-        <v>0.079072960751688723</v>
+        <v>0.078299336552113644</v>
       </c>
       <c r="E3">
-        <v>0.08854408087114167</v>
+        <v>0.089317705070716749</v>
       </c>
     </row>
     <row r="4">
@@ -187,13 +187,13 @@
         <v>0.26060484133032924</v>
       </c>
       <c r="C4">
-        <v>0.0029235645340321757</v>
+        <v>0.003620300416860827</v>
       </c>
       <c r="D4">
-        <v>0.25487474557859463</v>
+        <v>0.25350916487195935</v>
       </c>
       <c r="E4">
-        <v>0.26633493708206385</v>
+        <v>0.26770051778869913</v>
       </c>
     </row>
     <row r="5">
@@ -204,13 +204,13 @@
         <v>0.13386346651007566</v>
       </c>
       <c r="C5">
-        <v>0.0026649906804671985</v>
+        <v>0.0031164258081254185</v>
       </c>
       <c r="D5">
-        <v>0.12864016673871126</v>
+        <v>0.12775536777248384</v>
       </c>
       <c r="E5">
-        <v>0.13908676628144007</v>
+        <v>0.13997156524766749</v>
       </c>
     </row>
     <row r="6">
@@ -221,13 +221,13 @@
         <v>0.31315071575502806</v>
       </c>
       <c r="C6">
-        <v>0.0028870519950368505</v>
+        <v>0.003652630922463864</v>
       </c>
       <c r="D6">
-        <v>0.30749218344653084</v>
+        <v>0.30599167250907716</v>
       </c>
       <c r="E6">
-        <v>0.31880924806352529</v>
+        <v>0.32030975900097897</v>
       </c>
     </row>
     <row r="7">
@@ -238,13 +238,13 @@
         <v>0.17987712373207179</v>
       </c>
       <c r="C7">
-        <v>0.0028157130549426096</v>
+        <v>0.0031077802910538439</v>
       </c>
       <c r="D7">
-        <v>0.17435841274223404</v>
+        <v>0.17378596994204557</v>
       </c>
       <c r="E7">
-        <v>0.18539583472190954</v>
+        <v>0.18596827752209802</v>
       </c>
     </row>
     <row r="8">
@@ -255,13 +255,13 @@
         <v>0.3167780372863474</v>
       </c>
       <c r="C8">
-        <v>0.0028279423978212702</v>
+        <v>0.0032124872748273106</v>
       </c>
       <c r="D8">
-        <v>0.31123535795388307</v>
+        <v>0.31048166192958337</v>
       </c>
       <c r="E8">
-        <v>0.32232071661881173</v>
+        <v>0.32307441264311143</v>
       </c>
     </row>
     <row r="9">
@@ -272,13 +272,13 @@
         <v>0.20955038825487188</v>
       </c>
       <c r="C9">
-        <v>0.0030109055326640608</v>
+        <v>0.0032905055556760546</v>
       </c>
       <c r="D9">
-        <v>0.20364910601188596</v>
+        <v>0.20310109856594022</v>
       </c>
       <c r="E9">
-        <v>0.21545167049785779</v>
+        <v>0.21599967794380354</v>
       </c>
     </row>
     <row r="10">
@@ -289,13 +289,13 @@
         <v>0.29355882488273777</v>
       </c>
       <c r="C10">
-        <v>0.0028796223906760554</v>
+        <v>0.0031818944456713191</v>
       </c>
       <c r="D10">
-        <v>0.28791485436820452</v>
+        <v>0.28732241052164859</v>
       </c>
       <c r="E10">
-        <v>0.29920279539727102</v>
+        <v>0.29979523924382695</v>
       </c>
     </row>
     <row r="11">
@@ -306,13 +306,13 @@
         <v>0.21809164203437215</v>
       </c>
       <c r="C11">
-        <v>0.0032055137387657371</v>
+        <v>0.0033456651606549887</v>
       </c>
       <c r="D11">
-        <v>0.21180893369264342</v>
+        <v>0.21153424121612707</v>
       </c>
       <c r="E11">
-        <v>0.22437435037610087</v>
+        <v>0.22464904285261722</v>
       </c>
     </row>
     <row r="12">
@@ -323,13 +323,13 @@
         <v>0.2479815256226347</v>
       </c>
       <c r="C12">
-        <v>0.0029427865593704104</v>
+        <v>0.003423840862430388</v>
       </c>
       <c r="D12">
-        <v>0.24221375529780678</v>
+        <v>0.24127090379368216</v>
       </c>
       <c r="E12">
-        <v>0.25374929594746259</v>
+        <v>0.25469214745158725</v>
       </c>
     </row>
     <row r="13">
@@ -340,13 +340,13 @@
         <v>0.21387481939397726</v>
       </c>
       <c r="C13">
-        <v>0.0034023766135408296</v>
+        <v>0.0040374624366509267</v>
       </c>
       <c r="D13">
-        <v>0.20720626587224866</v>
+        <v>0.20596151719115149</v>
       </c>
       <c r="E13">
-        <v>0.22054337291570586</v>
+        <v>0.22178812159680303</v>
       </c>
     </row>
     <row r="14">
@@ -357,13 +357,13 @@
         <v>0.15886269409784221</v>
       </c>
       <c r="C14">
-        <v>0.002881998108091424</v>
+        <v>0.002867933792410517</v>
       </c>
       <c r="D14">
-        <v>0.15321406725090694</v>
+        <v>0.15324163287314518</v>
       </c>
       <c r="E14">
-        <v>0.16451132094477747</v>
+        <v>0.16448375532253923</v>
       </c>
     </row>
     <row r="15">
@@ -374,13 +374,13 @@
         <v>0.19687638737716706</v>
       </c>
       <c r="C15">
-        <v>0.0036784593821307262</v>
+        <v>0.0041813972737935225</v>
       </c>
       <c r="D15">
-        <v>0.18966672011998612</v>
+        <v>0.18868097732028813</v>
       </c>
       <c r="E15">
-        <v>0.20408605463434801</v>
+        <v>0.20507179743404599</v>
       </c>
     </row>
     <row r="16">
@@ -391,13 +391,13 @@
         <v>0.063207680213810763</v>
       </c>
       <c r="C16">
-        <v>0.0030684403904224951</v>
+        <v>0.0030484869475568203</v>
       </c>
       <c r="D16">
-        <v>0.057193632279879517</v>
+        <v>0.057232740408626512</v>
       </c>
       <c r="E16">
-        <v>0.069221728147742009</v>
+        <v>0.069182620018995014</v>
       </c>
     </row>
     <row r="17">
@@ -408,13 +408,13 @@
         <v>0.15816113011789271</v>
       </c>
       <c r="C17">
-        <v>0.004164783028657951</v>
+        <v>0.0039541857903619545</v>
       </c>
       <c r="D17">
-        <v>0.1499982834705049</v>
+        <v>0.15041104758060247</v>
       </c>
       <c r="E17">
-        <v>0.16632397676528052</v>
+        <v>0.16591121265518294</v>
       </c>
     </row>
     <row r="18">
@@ -425,13 +425,13 @@
         <v>-0.011498423724698432</v>
       </c>
       <c r="C18">
-        <v>0.0034828162061813529</v>
+        <v>0.003960101831185078</v>
       </c>
       <c r="D18">
-        <v>-0.018324635397059839</v>
+        <v>-0.019260100409157894</v>
       </c>
       <c r="E18">
-        <v>-0.0046722120523370256</v>
+        <v>-0.0037367470402389713</v>
       </c>
     </row>
     <row r="19">
@@ -442,13 +442,13 @@
         <v>0.10087229725184753</v>
       </c>
       <c r="C19">
-        <v>0.0053226210244303844</v>
+        <v>0.0052176934862527766</v>
       </c>
       <c r="D19">
-        <v>0.090440123742297859</v>
+        <v>0.090645778490057366</v>
       </c>
       <c r="E19">
-        <v>0.1113044707613972</v>
+        <v>0.11109881601363769</v>
       </c>
     </row>
   </sheetData>
